--- a/data/Daniel FuentesT3-2025.xlsx
+++ b/data/Daniel FuentesT3-2025.xlsx
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>16.52574934</v>
+        <v>0.4119437100000001</v>
       </c>
     </row>
   </sheetData>
